--- a/CourseProposal/json_output/assessment_dataframe.xlsx
+++ b/CourseProposal/json_output/assessment_dataframe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>LO#</t>
   </si>
@@ -49,65 +49,62 @@
     <t>LO5</t>
   </si>
   <si>
-    <t>LO6</t>
+    <t>Written Exam</t>
   </si>
   <si>
     <t>Practical Exam</t>
   </si>
   <si>
-    <t>Written Exam</t>
-  </si>
-  <si>
-    <t>Practical exercises provide a direct demonstration of the ability to analyze release components. Assessing the practical application of identifying and understanding the different components of a release.
-A1: Analyse release components (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>Practical exercises simulate real-world scenarios requiring coordination. Assessing the ability to communicate effectively and align release activities with stakeholders' needs and timelines.
-A2: Coordinate with relevant stakeholders on release scheduling to align release processes and procedures (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>Practical exercises assess the application of knowledge regarding scripts and tools, and their usage in software integration and deployment. It tests understanding of when and how to use specific tools.
-K1: Types and usage of scripts and tools for integrating and deploying software products (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>Practical assessment demonstrates the ability to choose appropriate scripts and tools. Focusing on effectiveness and suitability for specific integration and deployment tasks, evaluating selection skills.
-A3: Select appropriate scripts and tools for integrating and deploying software products (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>Practical application tests the understanding of software configuration procedures by requiring candidates to execute these procedures, showing they understand each step's purpose and sequence.
-K2: Software configuration procedures (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>Configuration tests are included to check the candidate knows the configuration tests performed, and their purpose in ensuring the reliability and stability of the software product.
-K3: Configuration tests and their purposes (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>Practical exercises test the ability to configure software. It assesses the ability to translate theoretical knowledge into practical skills in diverse platform configurations.
-A4: Configure software products to integrate and deploy software releases to various platforms (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>Practical activities demonstrate competency in executing configuration tests. Assessing the ability to follow procedures accurately and efficiently, while understanding the expected outcomes.
-A5: Execute configuration tests on platform specific versions of software products in line with testing procedures (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>Practical activities ensures the candidate can determine the outcome, issues or successes of testing procedures, and ensures the software is functional after configuration tests.
-K4: Interpretation of configuration test results (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>Practical tests involve identifying the cause and remedy to issues, which allows for assessment of their ability to diagnose effectively. The configuration allows a setting for practical investigation.
-A6: Diagnose issues surfaced from configuration testing (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>The practical element ensures the candidate understands the software configuration and deployment process, and they have appropriate knowledge to perform actions that will be tested in action.
-K5: Elements of the software configuration and deployment process (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>Practical implementation allows for the ability to determine improvements from the outcome of testing, and their experience, which allows for better modification of software code.
-A7: Identify potential improvements and modifications to the software configuration and deployment process or the software code (ICT-DIT-3014-1.1)</t>
-  </si>
-  <si>
-    <t>The practical element ensures the candidate can properly modify platform-specific software products and processes, while retaining previous functionality and applying improvements.
-A8: Implement modifications to platform-specific software products and processes (ICT-DIT-3014-1.1)</t>
+    <t>The candidate will demonstrate understanding of refining solution architecture through theoretical discussions and case studies, assessing their ability to articulate the process.
+K1: Process for refining solution architecture (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will explain the applications of various tools and modeling techniques necessary for developing solution architecture, focusing on theoretical knowledge.
+K2: Applications of tools and modelling techniques for creation of solution architecture (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will create a high-level framework for an IT solution, integrating various components and processes, showcasing their practical skills in architecture development.
+A1: Establish high-level structures and frameworks to guide the development of IT solutions incorporating various processes, hardware and software components (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will select and utilize appropriate design tools or modeling techniques in a practical exercise to develop a solution architecture blueprint.
+A2: Determine relevant design tools or modelling techniques required to develop a solution architecture and blueprint (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will analyze technical, functional, and service considerations in solution architecture, demonstrating their theoretical understanding of these aspects.
+K3: Technical, functional and service considerations (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will align stakeholder requirements through a practical project, ensuring that both technical and functional needs are met in the solution architecture.
+A3: Align requirements of various internal and external stakeholders, as well as technical, functional and service requirements within a solution architecture (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will discuss considerations for performance, security, and latency in solution architecture, reflecting their theoretical grasp of these critical aspects.
+K4: Considerations for multiple aspects of the overall solution including performance, security, latency and other relevant aspects for the solution (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will discuss compatibility among solution architecture components, reflecting their theoretical understanding of integration challenges.
+K6: Compatibility among multiple solution architecture components and design activities (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will coordinate multiple components in a practical scenario, ensuring consistency and compatibility within a target framework for solution architecture.
+A4: Coordinate multiple solution architecture components and design activities, ensuring consistency and compatibility within a target framework (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will explain standards for coding, scalability, integration, and reusability, showcasing their theoretical knowledge of best practices in solution architecture.
+K5: Standards for coding, scalability, integration and reusability (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will articulate the value added by a solution to business needs through a practical presentation, demonstrating their ability to connect architecture to business outcomes.
+A5: Articulate value added by the solution to the business needs (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>Description not found
+K7: Techniques to measure a solution's value-add (ICT-DES-5006-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will establish a process for monitoring and reviewing solution architecture against business requirements in a practical exercise, demonstrating their applied skills.
+A6: Establish processes to regularly monitor, test and review solution architecture against business requirements (ICT-DES-5006-1.1)</t>
   </si>
 </sst>
 </file>
@@ -496,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -508,7 +505,7 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -516,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -528,15 +525,15 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -548,12 +545,12 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -568,15 +565,15 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -588,15 +585,15 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -608,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -616,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -628,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -636,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -648,15 +645,15 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -668,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -676,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -688,15 +685,15 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -708,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -716,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -728,12 +725,12 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -748,7 +745,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/CourseProposal/json_output/assessment_dataframe.xlsx
+++ b/CourseProposal/json_output/assessment_dataframe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>LO#</t>
   </si>
@@ -46,65 +46,50 @@
     <t>LO4</t>
   </si>
   <si>
-    <t>LO5</t>
-  </si>
-  <si>
-    <t>Written Exam</t>
-  </si>
-  <si>
-    <t>Practical Exam</t>
-  </si>
-  <si>
-    <t>The candidate will demonstrate understanding of refining solution architecture through theoretical discussions and case studies, assessing their ability to articulate the process.
-K1: Process for refining solution architecture (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>The candidate will explain the applications of various tools and modeling techniques necessary for developing solution architecture, focusing on theoretical knowledge.
-K2: Applications of tools and modelling techniques for creation of solution architecture (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>The candidate will create a high-level framework for an IT solution, integrating various components and processes, showcasing their practical skills in architecture development.
-A1: Establish high-level structures and frameworks to guide the development of IT solutions incorporating various processes, hardware and software components (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>The candidate will select and utilize appropriate design tools or modeling techniques in a practical exercise to develop a solution architecture blueprint.
-A2: Determine relevant design tools or modelling techniques required to develop a solution architecture and blueprint (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>The candidate will analyze technical, functional, and service considerations in solution architecture, demonstrating their theoretical understanding of these aspects.
-K3: Technical, functional and service considerations (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>The candidate will align stakeholder requirements through a practical project, ensuring that both technical and functional needs are met in the solution architecture.
-A3: Align requirements of various internal and external stakeholders, as well as technical, functional and service requirements within a solution architecture (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>The candidate will discuss considerations for performance, security, and latency in solution architecture, reflecting their theoretical grasp of these critical aspects.
-K4: Considerations for multiple aspects of the overall solution including performance, security, latency and other relevant aspects for the solution (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>The candidate will discuss compatibility among solution architecture components, reflecting their theoretical understanding of integration challenges.
-K6: Compatibility among multiple solution architecture components and design activities (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>The candidate will coordinate multiple components in a practical scenario, ensuring consistency and compatibility within a target framework for solution architecture.
-A4: Coordinate multiple solution architecture components and design activities, ensuring consistency and compatibility within a target framework (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>The candidate will explain standards for coding, scalability, integration, and reusability, showcasing their theoretical knowledge of best practices in solution architecture.
-K5: Standards for coding, scalability, integration and reusability (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>The candidate will articulate the value added by a solution to business needs through a practical presentation, demonstrating their ability to connect architecture to business outcomes.
-A5: Articulate value added by the solution to the business needs (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>Description not found
-K7: Techniques to measure a solution's value-add (ICT-DES-5006-1.1)</t>
-  </si>
-  <si>
-    <t>The candidate will establish a process for monitoring and reviewing solution architecture against business requirements in a practical exercise, demonstrating their applied skills.
-A6: Establish processes to regularly monitor, test and review solution architecture against business requirements (ICT-DES-5006-1.1)</t>
+    <t>Oral Questioning</t>
+  </si>
+  <si>
+    <t>Others: Case Study</t>
+  </si>
+  <si>
+    <t>The candidate will describe types of tell-tale signs and symptoms, demonstrating knowledge of indicators.
+K2: Types of tell-tale signs and symptoms (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will perform risk identification techniques on scenarios and submit a report demonstrating their analysis.
+A1: Apply basic risk identification techniques (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will outline organisational procedures for security operations, reflecting understanding of protocols.
+K3: Organisational procedures for security operations (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will explain signs of surveillance and inappropriate demeanors, showing awareness of potential threats.
+K4: Signs of surveillance and intelligence-gathering being conducted, inappropriate demeanours and potential suicide bombers (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will identify risks in simulated scenarios, following SOPs and documenting the process.
+A2: Follow standard operating procedures (SOPs) to identify risks (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will identify types of suspicious activities and devices, demonstrating knowledge of terrorist tactics.
+K5: Types of suspicious activities, inappropriate attire, explosives and incendiary devices used by terrorists (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will describe proper protocols for the identification of persons, and the different methodologies.
+K6: Identification of persons (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will analyze real-world case studies, relating them to past experiences to identify potential risks.
+A3: Study situations and relate to past experience for identification of risks (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will respond to questions related to methods of risk analysis, demonstrating understanding of different approaches.
+K1: Methods of risk analysis (SEC-SRM-3002-1.1)</t>
+  </si>
+  <si>
+    <t>The candidate will participate in team discussions, sharing observations and contributing to risk identification.
+A4: Discuss situations with security teams to identify risks (SEC-SRM-3002-1.1)</t>
   </si>
 </sst>
 </file>
@@ -462,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,10 +478,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -505,7 +490,7 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -516,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -525,15 +510,15 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -545,15 +530,15 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -565,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -585,15 +570,15 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -605,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -613,10 +598,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -625,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -636,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -645,18 +630,18 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -665,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -676,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -685,67 +670,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/CourseProposal/json_output/assessment_dataframe.xlsx
+++ b/CourseProposal/json_output/assessment_dataframe.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The candidate will describe creative principles and storytelling in AI-generated text prompts in a Written Exam.
+          <t>The candidate will answer questions on creative principles and storytelling in AI-generated text prompts to assess understanding.
 K9: Creative principles and storytelling in AI generated text prompts (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -514,7 +514,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The candidate will explain basic AI algorithms and models used in script/text generation in a Written Exam.
+          <t>The candidate will respond to questions on basic AI algorithms and models used in script/text generation to demonstrate knowledge.
 K10: Basic AI algorithms and models used in script/text generation (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -541,7 +541,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The candidate will incorporate unique creative principles into AI-generated story ideas in a Practical Exam.
+          <t>The candidate will incorporate unique creative principles and storytelling elements into AI-generated story ideas during a practical exam.
 A8: Incorporate unique creative principles and storytelling elements into AI-generated story ideas to avoid generic replication (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -568,7 +568,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The candidate will use AI-generated text techniques to develop script elements in a Practical Exam.
+          <t>The candidate will use AI-generated text techniques and methodologies to develop script elements in a practical exam.
 A5: Use AI-generated text techniques and methodologies to develop script elements (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -595,7 +595,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The candidate will respond to a series of short answer questions related to AI-generated script ideation techniques for world-building, storyline, and character development in a Written Exam.
+          <t>The candidate will respond to a series of short answer questions related to AI-generated script ideation techniques for world-building, storyline and character development, scenario iterations.
 K1: AI-generated script ideation techniques for world-building, storyline and character development, scenario iterations (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -622,7 +622,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The candidate will identify key terms and themes for input into Gen AI platform in a Practical Exam.
+          <t>The candidate will identify key terms and themes for input into Gen AI platform to ideate and iterate story elements in a practical exam.
 A7: Identify key terms and themes for input into Gen AI platform to ideate and iterate story elements for incorporation into text prompts (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -649,7 +649,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>The candidate will explain Gen AI tool limitations and solutions in a Written Exam.
+          <t>The candidate will answer questions on Gen AI tool limitations and solutions to assess their knowledge.
 K3: Gen AI tool limitations and solutions (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -676,7 +676,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>The candidate will apply and adjust prompts in the generative process to improve iterations in a Practical Exam.
+          <t>The candidate will apply and adjust relevant prompts in the generative process to improve iterations during a practical exam.
 A6: Apply and adjust relevant prompts in the generative process to improve iterations (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -703,7 +703,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The candidate will explain basic NLP techniques and tools relevant to AI Text generation in a Written Exam.
+          <t>The candidate will respond to questions on basic NLP techniques and tools relevant to AI text generation to demonstrate knowledge.
 K8: Basic Natural Language Processing (NLP) techniques and tools relevant to AI Text generation (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -730,7 +730,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>The candidate will utilize NLP techniques and tools to enhance AI-generated story elements in a Practical Exam.
+          <t>The candidate will utilize NLP techniques and tools to enhance the quality and effectiveness of AI-generated story elements in a practical exam.
 A2: Utilise NLP techniques and tools to enhance the quality and effectiveness of AI-generated story elements (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -757,7 +757,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>The candidate will describe AI tools for script analysis and market research in a Written Exam.
+          <t>The candidate will respond to questions about AI tools for script analysis and market research to demonstrate knowledge.
 K6: AI tools for script analysis and market research (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -784,7 +784,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>The candidate will filter and script-edit Gen-AI output in a Practical Exam.
+          <t>The candidate will filter and script-edit Gen-AI output in a practical exam to demonstrate their skills.
 A4: Filter and Script-edit Gen-AI output (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -811,7 +811,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>The candidate will discuss Gen AI and Ethics awareness in a Written Exam.
+          <t>The candidate will answer questions on Gen AI and ethics awareness to assess their understanding.
 K7: Gen AI and Ethics awareness (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -838,7 +838,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>The candidate will discuss best practices to minimize plagiarism risk in a Written Exam.
+          <t>The candidate will answer questions on best practices to minimize plagiarism risk to show understanding.
 K5: Best Practices to minimise plagiarism risk (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -865,7 +865,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>The candidate will apply ethical considerations in prompt selection and reference usage in a Practical Exam.
+          <t>The candidate will apply ethical considerations in the selection of prompts and reference usage during a practical exam.
 A3: Apply ethical considerations in the selection of prompts and reference usage (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -892,7 +892,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>The candidate will demonstrate awareness and correction of bias in LLMs training data in a Written Exam.
+          <t>The candidate will explain awareness and correction of bias in LLMs training data reproduced in output through written responses.
 K4: Awareness and correction of bias in LLMs training data reproduced in output (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -919,7 +919,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>The candidate will perform a practical exercise on analyzing AI output for bias and submit corrective steps in a Practical Exam.
+          <t>The candidate will perform a practical exercise on analyzing AI output for bias and taking corrective steps and submit their analysis.
 A1: Analyse AI output for bias and taking corrective steps (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>The candidate will answer questions on copyright law covering Gen AI usage in a Written Exam.
+          <t>The candidate will respond to questions about copyright law covering Gen AI usage to demonstrate understanding.
 K2: Copyright law covering Gen AI usage (MED-MED-3004-1.1)</t>
         </is>
       </c>
@@ -973,7 +973,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>The candidate will identify copyright risk in Gen-AI production and avoid infringement in a Practical Exam.
+          <t>The candidate will identify copyright risk in Gen-AI production and avoid copyright infringement in a practical exam.
 A9: Identify copyright risk in Gen-AI production and avoid copyright infringement (MED-MED-3004-1.1)</t>
         </is>
       </c>
